--- a/Resource/excel/1001-框架-掉落配置.xlsx
+++ b/Resource/excel/1001-框架-掉落配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26340" windowHeight="13065"/>
+    <workbookView windowWidth="26310" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="dropgroup" sheetId="1" r:id="rId1"/>
@@ -151,6 +151,31 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
+          <t>PCC:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1 互斥( 不是你死就是我活)
+2 共存( 你好我好大家好 )
+注意:
+互斥类型, 万能保底条件一定要放在最后...切记!!</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H4" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
           <t>PCC:
 随机</t>
         </r>
@@ -185,31 +210,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>PCC:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1 互斥( 不是你死就是我活)
-2 共存( 你好我好大家好 )
-注意:
-互斥类型, 万能保底条件一定要放在最后...切记!!</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -238,12 +238,12 @@
     <t>是否重置掉落次数</t>
   </si>
   <si>
+    <t>条件类型</t>
+  </si>
+  <si>
     <t>随机的条件</t>
   </si>
   <si>
-    <t>条件类型</t>
-  </si>
-  <si>
     <t>Description(string)</t>
   </si>
   <si>
@@ -262,10 +262,10 @@
     <t>Reset(int)</t>
   </si>
   <si>
+    <t>ConditionType(int)</t>
+  </si>
+  <si>
     <t>Condition(string)</t>
-  </si>
-  <si>
-    <t>ConditionType(int)</t>
   </si>
   <si>
     <t>测试道具1</t>
@@ -283,8 +283,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -327,83 +327,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -418,6 +350,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -425,10 +417,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -448,26 +440,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -497,6 +497,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -515,7 +557,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,145 +593,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,6 +682,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -696,6 +729,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,39 +772,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -773,159 +782,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1373,7 +1373,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1384,8 +1384,8 @@
     <col min="4" max="4" width="18.25" style="4" customWidth="1"/>
     <col min="5" max="5" width="19.375" style="4" customWidth="1"/>
     <col min="6" max="6" width="23.875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="23.75" style="4" customWidth="1"/>
-    <col min="8" max="8" width="18.25" style="4" customWidth="1"/>
+    <col min="7" max="7" width="18.25" style="4" customWidth="1"/>
+    <col min="8" max="8" width="23.75" style="4" customWidth="1"/>
     <col min="9" max="9" width="12.75" style="4" customWidth="1"/>
     <col min="10" max="10" width="11.5" style="4" customWidth="1"/>
     <col min="11" max="12" width="17.125" style="4" customWidth="1"/>
@@ -1482,7 +1482,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1501,8 +1501,11 @@
       <c r="F5" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1521,8 +1524,11 @@
       <c r="F6" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1540,48 +1546,45 @@
       </c>
       <c r="F7" s="4">
         <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="4"/>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="4"/>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="4"/>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="4"/>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="4"/>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="4"/>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:1">

--- a/Resource/excel/1001-框架-掉落配置.xlsx
+++ b/Resource/excel/1001-框架-掉落配置.xlsx
@@ -282,10 +282,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -328,14 +328,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,124 +432,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -481,6 +476,11 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -491,187 +491,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,25 +685,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -714,6 +705,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -729,30 +729,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -774,6 +750,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -782,153 +767,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1373,7 +1373,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
